--- a/exp data/Cell setup info/Cell table stacked electrodes_BKSComments.xlsx
+++ b/exp data/Cell setup info/Cell table stacked electrodes_BKSComments.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20398"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20409"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E5A657B-3420-4B6E-BFDA-49C99E8558F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AE4950-F844-443B-B025-60D4A9FDF963}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -205,7 +205,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,6 +215,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -232,12 +238,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -523,9 +532,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1533,41 +1542,41 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="3">
         <v>20180903</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="1">
+      <c r="C26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="3">
         <v>26.48</v>
       </c>
-      <c r="E26" s="1">
-        <v>0</v>
-      </c>
-      <c r="F26" s="1">
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <f t="shared" si="0"/>
         <v>26.48</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="3">
         <v>0.53</v>
       </c>
-      <c r="H26" s="1">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="I26" s="1">
-        <v>1.095</v>
-      </c>
-      <c r="J26" s="1">
+      <c r="H26" s="3">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1.095</v>
+      </c>
+      <c r="J26" s="3">
         <v>268</v>
       </c>
-      <c r="K26" s="1">
-        <v>0</v>
-      </c>
-      <c r="L26" s="1">
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <f t="shared" si="4"/>
         <v>268</v>
       </c>
@@ -1592,26 +1601,31 @@
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="1">
-        <v>0</v>
-      </c>
-      <c r="F27" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="1">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="I27" s="1">
-        <v>1.095</v>
-      </c>
-      <c r="K27" s="1">
-        <v>0</v>
-      </c>
-      <c r="L27" s="1">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1.095</v>
+      </c>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1625,41 +1639,41 @@
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="3">
         <v>20180903</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="1">
+      <c r="C28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="3">
         <v>27.06</v>
       </c>
-      <c r="E28" s="1">
-        <v>0</v>
-      </c>
-      <c r="F28" s="1">
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
         <f t="shared" si="0"/>
         <v>27.06</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="3">
         <v>0.52</v>
       </c>
-      <c r="H28" s="1">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="I28" s="1">
-        <v>1.095</v>
-      </c>
-      <c r="J28" s="1">
+      <c r="H28" s="3">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="I28" s="3">
+        <v>1.095</v>
+      </c>
+      <c r="J28" s="3">
         <v>269</v>
       </c>
-      <c r="K28" s="1">
-        <v>0</v>
-      </c>
-      <c r="L28" s="1">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3">
         <f t="shared" si="4"/>
         <v>269</v>
       </c>
@@ -1676,66 +1690,71 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="1">
-        <v>0</v>
-      </c>
-      <c r="F29" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="1">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="I29" s="1">
-        <v>1.095</v>
-      </c>
-      <c r="K29" s="1">
-        <v>0</v>
-      </c>
-      <c r="L29" s="1">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="I29" s="3">
+        <v>1.095</v>
+      </c>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="3">
         <v>20180903</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="1">
+      <c r="C30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="3">
         <v>6.41</v>
       </c>
-      <c r="E30" s="1">
-        <v>0</v>
-      </c>
-      <c r="F30" s="1">
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
         <f t="shared" si="0"/>
         <v>6.41</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="3">
         <v>0.41</v>
       </c>
-      <c r="H30" s="1">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="I30" s="1">
-        <v>1.095</v>
-      </c>
-      <c r="J30" s="1">
+      <c r="H30" s="3">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="I30" s="3">
+        <v>1.095</v>
+      </c>
+      <c r="J30" s="3">
         <v>52</v>
       </c>
-      <c r="K30" s="1">
-        <v>0</v>
-      </c>
-      <c r="L30" s="1">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3">
         <f t="shared" si="4"/>
         <v>52</v>
       </c>
@@ -1760,26 +1779,31 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" s="1">
-        <v>0</v>
-      </c>
-      <c r="F31" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="1">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="I31" s="1">
-        <v>1.095</v>
-      </c>
-      <c r="K31" s="1">
-        <v>0</v>
-      </c>
-      <c r="L31" s="1">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="I31" s="3">
+        <v>1.095</v>
+      </c>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1793,41 +1817,41 @@
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="3">
         <v>20180903</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="1">
+      <c r="C32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="3">
         <v>6.4950000000000001</v>
       </c>
-      <c r="E32" s="1">
-        <v>0</v>
-      </c>
-      <c r="F32" s="1">
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <f t="shared" si="0"/>
         <v>6.4950000000000001</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="3">
         <v>0.43</v>
       </c>
-      <c r="H32" s="1">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="I32" s="1">
-        <v>1.095</v>
-      </c>
-      <c r="J32" s="1">
+      <c r="H32" s="3">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="I32" s="3">
+        <v>1.095</v>
+      </c>
+      <c r="J32" s="3">
         <v>54</v>
       </c>
-      <c r="K32" s="1">
-        <v>0</v>
-      </c>
-      <c r="L32" s="1">
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <f t="shared" si="4"/>
         <v>54</v>
       </c>
@@ -1844,67 +1868,72 @@
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" s="1">
-        <v>0</v>
-      </c>
-      <c r="F33" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="1">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="I33" s="1">
-        <v>1.095</v>
-      </c>
-      <c r="K33" s="1">
-        <v>0</v>
-      </c>
-      <c r="L33" s="1">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1.095</v>
+      </c>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="3">
         <v>20180903</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="1">
+      <c r="C34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="3">
         <f>29.19+29.51</f>
         <v>58.7</v>
       </c>
-      <c r="E34" s="1">
-        <v>0</v>
-      </c>
-      <c r="F34" s="1">
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3">
         <f t="shared" si="0"/>
         <v>58.7</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="3">
         <v>0.52</v>
       </c>
-      <c r="H34" s="1">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="I34" s="1">
-        <v>1.095</v>
-      </c>
-      <c r="J34" s="1">
+      <c r="H34" s="3">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="I34" s="3">
+        <v>1.095</v>
+      </c>
+      <c r="J34" s="3">
         <v>580</v>
       </c>
-      <c r="K34" s="1">
-        <v>0</v>
-      </c>
-      <c r="L34" s="1">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3">
         <f t="shared" si="4"/>
         <v>580</v>
       </c>
@@ -1929,26 +1958,31 @@
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C35" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E35" s="1">
-        <v>0</v>
-      </c>
-      <c r="F35" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H35" s="1">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="I35" s="1">
-        <v>1.095</v>
-      </c>
-      <c r="K35" s="1">
-        <v>0</v>
-      </c>
-      <c r="L35" s="1">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="I35" s="3">
+        <v>1.095</v>
+      </c>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1962,42 +1996,42 @@
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="3">
         <v>20180903</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" s="1">
+      <c r="C36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="3">
         <f>29.735+30.105</f>
         <v>59.84</v>
       </c>
-      <c r="E36" s="1">
-        <v>0</v>
-      </c>
-      <c r="F36" s="1">
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3">
         <f t="shared" si="0"/>
         <v>59.84</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G36" s="3">
         <v>0.52</v>
       </c>
-      <c r="H36" s="1">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="I36" s="1">
-        <v>1.095</v>
-      </c>
-      <c r="J36" s="1">
+      <c r="H36" s="3">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="I36" s="3">
+        <v>1.095</v>
+      </c>
+      <c r="J36" s="3">
         <v>593.5</v>
       </c>
-      <c r="K36" s="1">
-        <v>0</v>
-      </c>
-      <c r="L36" s="1">
+      <c r="K36" s="3">
+        <v>0</v>
+      </c>
+      <c r="L36" s="3">
         <f t="shared" si="4"/>
         <v>593.5</v>
       </c>
@@ -2014,67 +2048,72 @@
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C37" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E37" s="1">
-        <v>0</v>
-      </c>
-      <c r="F37" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H37" s="1">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="I37" s="1">
-        <v>1.095</v>
-      </c>
-      <c r="K37" s="1">
-        <v>0</v>
-      </c>
-      <c r="L37" s="1">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="I37" s="3">
+        <v>1.095</v>
+      </c>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3">
+        <v>0</v>
+      </c>
+      <c r="L37" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="3">
         <v>20180903</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="1">
+      <c r="C38" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="3">
         <f>(6.52+6.645)</f>
         <v>13.164999999999999</v>
       </c>
-      <c r="E38" s="1">
-        <v>0</v>
-      </c>
-      <c r="F38" s="1">
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3">
         <f t="shared" si="0"/>
         <v>13.164999999999999</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G38" s="3">
         <v>0.41</v>
       </c>
-      <c r="H38" s="1">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="I38" s="1">
-        <v>1.095</v>
-      </c>
-      <c r="J38" s="1">
+      <c r="H38" s="3">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="I38" s="3">
+        <v>1.095</v>
+      </c>
+      <c r="J38" s="3">
         <v>106</v>
       </c>
-      <c r="K38" s="1">
-        <v>0</v>
-      </c>
-      <c r="L38" s="1">
+      <c r="K38" s="3">
+        <v>0</v>
+      </c>
+      <c r="L38" s="3">
         <f t="shared" si="4"/>
         <v>106</v>
       </c>
@@ -2099,26 +2138,31 @@
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C39" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E39" s="1">
-        <v>0</v>
-      </c>
-      <c r="F39" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H39" s="1">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="I39" s="1">
-        <v>1.095</v>
-      </c>
-      <c r="K39" s="1">
-        <v>0</v>
-      </c>
-      <c r="L39" s="1">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="I39" s="3">
+        <v>1.095</v>
+      </c>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3">
+        <v>0</v>
+      </c>
+      <c r="L39" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -2132,42 +2176,42 @@
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="3">
         <v>20180903</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D40" s="1">
+      <c r="C40" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="3">
         <f>6.555+6.925</f>
         <v>13.48</v>
       </c>
-      <c r="E40" s="1">
-        <v>0</v>
-      </c>
-      <c r="F40" s="1">
+      <c r="E40" s="3">
+        <v>0</v>
+      </c>
+      <c r="F40" s="3">
         <f t="shared" si="0"/>
         <v>13.48</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G40" s="3">
         <v>0.43</v>
       </c>
-      <c r="H40" s="1">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="I40" s="1">
-        <v>1.095</v>
-      </c>
-      <c r="J40" s="1">
+      <c r="H40" s="3">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="I40" s="3">
+        <v>1.095</v>
+      </c>
+      <c r="J40" s="3">
         <v>112</v>
       </c>
-      <c r="K40" s="1">
-        <v>0</v>
-      </c>
-      <c r="L40" s="1">
+      <c r="K40" s="3">
+        <v>0</v>
+      </c>
+      <c r="L40" s="3">
         <f t="shared" si="4"/>
         <v>112</v>
       </c>
@@ -2184,68 +2228,73 @@
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C41" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E41" s="1">
-        <v>0</v>
-      </c>
-      <c r="F41" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H41" s="1">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="I41" s="1">
-        <v>1.095</v>
-      </c>
-      <c r="K41" s="1">
-        <v>0</v>
-      </c>
-      <c r="L41" s="1">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="I41" s="3">
+        <v>1.095</v>
+      </c>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="3">
         <v>20180903</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D42" s="1">
+      <c r="C42" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="3">
         <f>27.825+6.655</f>
         <v>34.479999999999997</v>
       </c>
-      <c r="E42" s="1">
-        <v>0</v>
-      </c>
-      <c r="F42" s="1">
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
         <f t="shared" si="0"/>
         <v>34.479999999999997</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G42" s="3">
         <f>52/(277+52)*0.38+277/(277+52)*0.51</f>
         <v>0.48945288753799387</v>
       </c>
-      <c r="H42" s="1">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="I42" s="1">
-        <v>1.095</v>
-      </c>
-      <c r="J42" s="1">
+      <c r="H42" s="3">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="I42" s="3">
+        <v>1.095</v>
+      </c>
+      <c r="J42" s="3">
         <v>329</v>
       </c>
-      <c r="K42" s="1">
-        <v>0</v>
-      </c>
-      <c r="L42" s="1">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <f t="shared" si="4"/>
         <v>329</v>
       </c>
@@ -2270,26 +2319,31 @@
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C43" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E43" s="1">
-        <v>0</v>
-      </c>
-      <c r="F43" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H43" s="1">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="I43" s="1">
-        <v>1.095</v>
-      </c>
-      <c r="K43" s="1">
-        <v>0</v>
-      </c>
-      <c r="L43" s="1">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="I43" s="3">
+        <v>1.095</v>
+      </c>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -2303,43 +2357,43 @@
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="3">
         <v>20180903</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D44" s="1">
+      <c r="C44" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="3">
         <f>28.07+6.715</f>
         <v>34.784999999999997</v>
       </c>
-      <c r="E44" s="1">
-        <v>0</v>
-      </c>
-      <c r="F44" s="1">
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
         <f t="shared" si="0"/>
         <v>34.784999999999997</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G44" s="3">
         <f>55/(279+55)*0.41+279/(279+55)*0.51</f>
         <v>0.49353293413173649</v>
       </c>
-      <c r="H44" s="1">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="I44" s="1">
-        <v>1.095</v>
-      </c>
-      <c r="J44" s="1">
+      <c r="H44" s="3">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="I44" s="3">
+        <v>1.095</v>
+      </c>
+      <c r="J44" s="3">
         <v>334</v>
       </c>
-      <c r="K44" s="1">
-        <v>0</v>
-      </c>
-      <c r="L44" s="1">
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
         <f t="shared" si="4"/>
         <v>334</v>
       </c>
@@ -2356,160 +2410,175 @@
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C45" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E45" s="1">
-        <v>0</v>
-      </c>
-      <c r="F45" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H45" s="1">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="I45" s="1">
-        <v>1.095</v>
-      </c>
-      <c r="K45" s="1">
-        <v>0</v>
-      </c>
-      <c r="L45" s="1">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="I45" s="3">
+        <v>1.095</v>
+      </c>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="3">
         <v>20180903</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D46" s="1">
+      <c r="C46" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="3">
         <f>28.195+6.84</f>
         <v>35.034999999999997</v>
       </c>
-      <c r="E46" s="1">
-        <v>0</v>
-      </c>
-      <c r="F46" s="1">
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
         <f t="shared" si="0"/>
         <v>35.034999999999997</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G46" s="3">
         <f>57/(285+57)*0.42+285/(285+57)*0.52</f>
         <v>0.5033333333333333</v>
       </c>
-      <c r="H46" s="1">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="I46" s="1">
-        <v>1.095</v>
-      </c>
-      <c r="J46" s="1">
+      <c r="H46" s="3">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="I46" s="3">
+        <v>1.095</v>
+      </c>
+      <c r="J46" s="3">
         <v>342</v>
       </c>
-      <c r="K46" s="1">
-        <v>0</v>
-      </c>
-      <c r="L46" s="1">
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
         <f t="shared" si="4"/>
         <v>342</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C47" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E47" s="1">
-        <v>0</v>
-      </c>
-      <c r="F47" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H47" s="1">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="I47" s="1">
-        <v>1.095</v>
-      </c>
-      <c r="K47" s="1">
-        <v>0</v>
-      </c>
-      <c r="L47" s="1">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="I47" s="3">
+        <v>1.095</v>
+      </c>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="3">
         <v>20180903</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D48" s="1">
+      <c r="C48" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" s="3">
         <f>28.76+6.865</f>
         <v>35.625</v>
       </c>
-      <c r="E48" s="1">
-        <v>0</v>
-      </c>
-      <c r="F48" s="1">
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
         <f t="shared" si="0"/>
         <v>35.625</v>
       </c>
-      <c r="G48" s="1">
+      <c r="G48" s="3">
         <f>55/(287+55)*0.39+287/(287+55)*0.51</f>
         <v>0.49070175438596486</v>
       </c>
-      <c r="H48" s="1">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="I48" s="1">
-        <v>1.095</v>
-      </c>
-      <c r="J48" s="1">
+      <c r="H48" s="3">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="I48" s="3">
+        <v>1.095</v>
+      </c>
+      <c r="J48" s="3">
         <v>342</v>
       </c>
-      <c r="K48" s="1">
-        <v>0</v>
-      </c>
-      <c r="L48" s="1">
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
         <f t="shared" si="4"/>
         <v>342</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C49" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E49" s="1">
-        <v>0</v>
-      </c>
-      <c r="F49" s="1">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
         <f t="shared" ref="F49" si="5">D49-E49</f>
         <v>0</v>
       </c>
-      <c r="H49" s="1">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="I49" s="1">
-        <v>1.095</v>
-      </c>
-      <c r="K49" s="1">
-        <v>0</v>
-      </c>
-      <c r="L49" s="1">
+      <c r="G49" s="3"/>
+      <c r="H49" s="3">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="I49" s="3">
+        <v>1.095</v>
+      </c>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -2567,5 +2636,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/exp data/Cell setup info/Cell table stacked electrodes_BKSComments.xlsx
+++ b/exp data/Cell setup info/Cell table stacked electrodes_BKSComments.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20409"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\github.com\yugal0\fitting-experimental\exp data\cell setup info\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19BCF31-E47F-416E-837D-BB4BE341BCE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Tortuosity"/>
+    <sheet name="Tortuosity" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -175,8 +181,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -193,7 +198,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFff0000"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -226,43 +231,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -273,10 +269,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -314,71 +310,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -406,7 +402,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -429,11 +425,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -442,13 +438,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -458,7 +454,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -467,7 +463,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -476,7 +472,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -484,10 +480,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -552,39 +548,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:R60"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
-      <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="64.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="11.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="25.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="10.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="9" width="11.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="9" width="21.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="9" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="8" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="8" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="8" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="8" width="25.005" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="9" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="9" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="9" width="52.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="9" width="17.005" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="64.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="52.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -640,7 +636,7 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -657,13 +653,14 @@
         <v>0</v>
       </c>
       <c r="F2" s="5">
-        <f>D2-E2</f>
+        <f t="shared" ref="F2:F49" si="0">D2-E2</f>
+        <v>25.105</v>
       </c>
       <c r="G2" s="5">
         <v>0.53</v>
       </c>
       <c r="H2" s="5">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="I2" s="5">
         <v>1.095</v>
@@ -675,22 +672,25 @@
         <v>0</v>
       </c>
       <c r="L2" s="4">
-        <f>J2-K2</f>
+        <f t="shared" ref="L2:L49" si="1">J2-K2</f>
+        <v>251</v>
       </c>
       <c r="M2" s="4">
         <v>1062</v>
       </c>
       <c r="N2" s="5">
         <f>M2*H2/10*(I2^2*PI()/4)/10000*G2/(L2/1000000)/2</f>
+        <v>3.7272583324983013</v>
       </c>
       <c r="O2" s="5">
         <f>N2/G2</f>
+        <v>7.0325628915062284</v>
       </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="1" t="s">
@@ -701,11 +701,12 @@
         <v>0</v>
       </c>
       <c r="F3" s="4">
-        <f>D3-E3</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="5">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="I3" s="5">
         <v>1.095</v>
@@ -715,7 +716,8 @@
         <v>0</v>
       </c>
       <c r="L3" s="4">
-        <f>J3-K3</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="3"/>
@@ -724,7 +726,7 @@
       <c r="Q3" s="3"/>
       <c r="R3" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -741,13 +743,14 @@
         <v>0</v>
       </c>
       <c r="F4" s="5">
-        <f>D4-E4</f>
+        <f t="shared" si="0"/>
+        <v>31.58</v>
       </c>
       <c r="G4" s="5">
         <v>0.52</v>
       </c>
       <c r="H4" s="5">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="I4" s="5">
         <v>1.095</v>
@@ -759,22 +762,25 @@
         <v>0</v>
       </c>
       <c r="L4" s="4">
-        <f>J4-K4</f>
+        <f t="shared" si="1"/>
+        <v>309</v>
       </c>
       <c r="M4" s="4">
         <v>1405</v>
       </c>
       <c r="N4" s="5">
         <f>M4*H4/10*(I4^2*PI()/4)/10000*G4/(L4/1000000)/2</f>
+        <v>3.9299227889679571</v>
       </c>
       <c r="O4" s="5">
         <f>N4/G4</f>
+        <v>7.5575438249383788</v>
       </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
@@ -785,11 +791,12 @@
         <v>0</v>
       </c>
       <c r="F5" s="4">
-        <f>D5-E5</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="5">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="I5" s="5">
         <v>1.095</v>
@@ -799,7 +806,8 @@
         <v>0</v>
       </c>
       <c r="L5" s="4">
-        <f>J5-K5</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="3"/>
@@ -808,7 +816,7 @@
       <c r="Q5" s="3"/>
       <c r="R5" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -825,13 +833,14 @@
         <v>0</v>
       </c>
       <c r="F6" s="5">
-        <f>D6-E6</f>
+        <f t="shared" si="0"/>
+        <v>6.72</v>
       </c>
       <c r="G6" s="5">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="H6" s="5">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="I6" s="5">
         <v>1.095</v>
@@ -843,22 +852,25 @@
         <v>0</v>
       </c>
       <c r="L6" s="4">
-        <f>J6-K6</f>
+        <f t="shared" si="1"/>
+        <v>74</v>
       </c>
       <c r="M6" s="4">
         <v>473</v>
       </c>
       <c r="N6" s="5">
         <f>M6*H6/10*(I6^2*PI()/4)/10000*G6/(L6/1000000)/2</f>
+        <v>5.9494973778979565</v>
       </c>
       <c r="O6" s="5">
         <f>N6/G6</f>
+        <v>10.624102460532065</v>
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="1" t="s">
@@ -869,11 +881,12 @@
         <v>0</v>
       </c>
       <c r="F7" s="4">
-        <f>D7-E7</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="5">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="I7" s="5">
         <v>1.095</v>
@@ -883,7 +896,8 @@
         <v>0</v>
       </c>
       <c r="L7" s="4">
-        <f>J7-K7</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="3"/>
@@ -892,7 +906,7 @@
       <c r="Q7" s="3"/>
       <c r="R7" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -909,13 +923,14 @@
         <v>0</v>
       </c>
       <c r="F8" s="5">
-        <f>D8-E8</f>
+        <f t="shared" si="0"/>
+        <v>6.75</v>
       </c>
       <c r="G8" s="5">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H8" s="5">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="I8" s="5">
         <v>1.095</v>
@@ -927,22 +942,25 @@
         <v>0</v>
       </c>
       <c r="L8" s="4">
-        <f>J8-K8</f>
+        <f t="shared" si="1"/>
+        <v>76</v>
       </c>
       <c r="M8" s="4">
         <v>482</v>
       </c>
       <c r="N8" s="5">
         <f>M8*H8/10*(I8^2*PI()/4)/10000*G8/(L8/1000000)/2</f>
+        <v>6.00857008291106</v>
       </c>
       <c r="O8" s="5">
         <f>N8/G8</f>
+        <v>10.541351022650984</v>
       </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="1" t="s">
@@ -953,11 +971,12 @@
         <v>0</v>
       </c>
       <c r="F9" s="4">
-        <f>D9-E9</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="5">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="I9" s="5">
         <v>1.095</v>
@@ -967,7 +986,8 @@
         <v>0</v>
       </c>
       <c r="L9" s="4">
-        <f>J9-K9</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="3"/>
@@ -976,7 +996,7 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -988,18 +1008,20 @@
       </c>
       <c r="D10" s="5">
         <f>33.235+32.39</f>
+        <v>65.625</v>
       </c>
       <c r="E10" s="4">
         <v>0</v>
       </c>
       <c r="F10" s="5">
-        <f>D10-E10</f>
+        <f t="shared" si="0"/>
+        <v>65.625</v>
       </c>
       <c r="G10" s="5">
-        <v>0.515</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="H10" s="5">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="I10" s="5">
         <v>1.095</v>
@@ -1011,22 +1033,25 @@
         <v>0</v>
       </c>
       <c r="L10" s="4">
-        <f>J10-K10</f>
+        <f t="shared" si="1"/>
+        <v>642</v>
       </c>
       <c r="M10" s="4">
         <v>2820</v>
       </c>
       <c r="N10" s="5">
         <f>M10*H10/10*(I10^2*PI()/4)/10000*G10/(L10/1000000)/2</f>
+        <v>3.7599679129499939</v>
       </c>
       <c r="O10" s="5">
         <f>N10/G10</f>
+        <v>7.3009085688349398</v>
       </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="1" t="s">
@@ -1037,11 +1062,12 @@
         <v>0</v>
       </c>
       <c r="F11" s="4">
-        <f>D11-E11</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="5">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="I11" s="5">
         <v>1.095</v>
@@ -1051,7 +1077,8 @@
         <v>0</v>
       </c>
       <c r="L11" s="4">
-        <f>J11-K11</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="3"/>
@@ -1060,7 +1087,7 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1072,18 +1099,20 @@
       </c>
       <c r="D12" s="5">
         <f>33.71+35.12</f>
+        <v>68.83</v>
       </c>
       <c r="E12" s="4">
         <v>0</v>
       </c>
       <c r="F12" s="5">
-        <f>D12-E12</f>
+        <f t="shared" si="0"/>
+        <v>68.83</v>
       </c>
       <c r="G12" s="5">
-        <v>0.515</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="H12" s="5">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="I12" s="5">
         <v>1.095</v>
@@ -1095,22 +1124,25 @@
         <v>0</v>
       </c>
       <c r="L12" s="4">
-        <f>J12-K12</f>
+        <f t="shared" si="1"/>
+        <v>673</v>
       </c>
       <c r="M12" s="4">
         <v>3164</v>
       </c>
       <c r="N12" s="5">
         <f>M12*H12/10*(I12^2*PI()/4)/10000*G12/(L12/1000000)/2</f>
+        <v>4.0243103821990909</v>
       </c>
       <c r="O12" s="5">
         <f>N12/G12</f>
+        <v>7.814194916891438</v>
       </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="1" t="s">
@@ -1121,11 +1153,12 @@
         <v>0</v>
       </c>
       <c r="F13" s="4">
-        <f>D13-E13</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="5">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="I13" s="5">
         <v>1.095</v>
@@ -1135,7 +1168,8 @@
         <v>0</v>
       </c>
       <c r="L13" s="4">
-        <f>J13-K13</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="3"/>
@@ -1144,7 +1178,7 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -1156,18 +1190,20 @@
       </c>
       <c r="D14" s="5">
         <f>6.8+6.83</f>
+        <v>13.629999999999999</v>
       </c>
       <c r="E14" s="4">
         <v>0</v>
       </c>
       <c r="F14" s="5">
-        <f>D14-E14</f>
+        <f t="shared" si="0"/>
+        <v>13.629999999999999</v>
       </c>
       <c r="G14" s="5">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H14" s="5">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="I14" s="5">
         <v>1.095</v>
@@ -1179,22 +1215,25 @@
         <v>0</v>
       </c>
       <c r="L14" s="4">
-        <f>J14-K14</f>
+        <f t="shared" si="1"/>
+        <v>154</v>
       </c>
       <c r="M14" s="4">
         <v>1059</v>
       </c>
       <c r="N14" s="5">
         <f>M14*H14/10*(I14^2*PI()/4)/10000*G14/(L14/1000000)/2</f>
+        <v>6.5149775630895865</v>
       </c>
       <c r="O14" s="5">
         <f>N14/G14</f>
+        <v>11.429785198402785</v>
       </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="1" t="s">
@@ -1205,11 +1244,12 @@
         <v>0</v>
       </c>
       <c r="F15" s="4">
-        <f>D15-E15</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="5">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="I15" s="5">
         <v>1.095</v>
@@ -1219,7 +1259,8 @@
         <v>0</v>
       </c>
       <c r="L15" s="4">
-        <f>J15-K15</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="3"/>
@@ -1228,7 +1269,7 @@
       <c r="Q15" s="3"/>
       <c r="R15" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -1240,18 +1281,20 @@
       </c>
       <c r="D16" s="5">
         <f>6.9+6.92</f>
+        <v>13.82</v>
       </c>
       <c r="E16" s="4">
         <v>0</v>
       </c>
       <c r="F16" s="5">
-        <f>D16-E16</f>
+        <f t="shared" si="0"/>
+        <v>13.82</v>
       </c>
       <c r="G16" s="5">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H16" s="5">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="I16" s="5">
         <v>1.095</v>
@@ -1263,22 +1306,25 @@
         <v>0</v>
       </c>
       <c r="L16" s="4">
-        <f>J16-K16</f>
+        <f t="shared" si="1"/>
+        <v>156</v>
       </c>
       <c r="M16" s="4">
         <v>1031</v>
       </c>
       <c r="N16" s="5">
         <f>M16*H16/10*(I16^2*PI()/4)/10000*G16/(L16/1000000)/2</f>
+        <v>6.2614043703662503</v>
       </c>
       <c r="O16" s="5">
         <f>N16/G16</f>
+        <v>10.984919948010967</v>
       </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="1" t="s">
@@ -1289,11 +1335,12 @@
         <v>0</v>
       </c>
       <c r="F17" s="4">
-        <f>D17-E17</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="5">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="I17" s="5">
         <v>1.095</v>
@@ -1303,7 +1350,8 @@
         <v>0</v>
       </c>
       <c r="L17" s="4">
-        <f>J17-K17</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="3"/>
@@ -1312,7 +1360,7 @@
       <c r="Q17" s="3"/>
       <c r="R17" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -1324,45 +1372,52 @@
       </c>
       <c r="D18" s="5">
         <f>26.93+6.655</f>
+        <v>33.585000000000001</v>
       </c>
       <c r="E18" s="4">
         <v>0</v>
       </c>
       <c r="F18" s="5">
-        <f>D18-E18</f>
+        <f t="shared" si="0"/>
+        <v>33.585000000000001</v>
       </c>
       <c r="G18" s="5">
         <f>73/(270+73)*0.56+270/(270+73)*0.53</f>
+        <v>0.53638483965014583</v>
       </c>
       <c r="H18" s="5">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="I18" s="5">
         <v>1.095</v>
       </c>
       <c r="J18" s="4">
         <f>270+73</f>
+        <v>343</v>
       </c>
       <c r="K18" s="4">
         <v>0</v>
       </c>
       <c r="L18" s="4">
-        <f>J18-K18</f>
+        <f t="shared" si="1"/>
+        <v>343</v>
       </c>
       <c r="M18" s="4">
         <v>2175</v>
       </c>
       <c r="N18" s="5">
         <f>M18*H18/10*(I18^2*PI()/4)/10000*G18/(L18/1000000)/2</f>
+        <v>5.6533316667081097</v>
       </c>
       <c r="O18" s="5">
         <f>N18/G18</f>
+        <v>10.539693236660948</v>
       </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="1" t="s">
@@ -1373,11 +1428,12 @@
         <v>0</v>
       </c>
       <c r="F19" s="4">
-        <f>D19-E19</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="5">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="I19" s="5">
         <v>1.095</v>
@@ -1387,7 +1443,8 @@
         <v>0</v>
       </c>
       <c r="L19" s="4">
-        <f>J19-K19</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="3"/>
@@ -1396,7 +1453,7 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
@@ -1408,45 +1465,52 @@
       </c>
       <c r="D20" s="5">
         <f>27.17+6.67</f>
+        <v>33.840000000000003</v>
       </c>
       <c r="E20" s="4">
         <v>0</v>
       </c>
       <c r="F20" s="5">
-        <f>D20-E20</f>
+        <f t="shared" si="0"/>
+        <v>33.840000000000003</v>
       </c>
       <c r="G20" s="5">
         <f>73/(270+74)*0.56+270/(270+74)*0.52</f>
+        <v>0.52697674418604645</v>
       </c>
       <c r="H20" s="5">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="I20" s="5">
         <v>1.095</v>
       </c>
       <c r="J20" s="4">
         <f>270+74</f>
+        <v>344</v>
       </c>
       <c r="K20" s="4">
         <v>0</v>
       </c>
       <c r="L20" s="4">
-        <f>J20-K20</f>
+        <f t="shared" si="1"/>
+        <v>344</v>
       </c>
       <c r="M20" s="4">
         <v>2316</v>
       </c>
       <c r="N20" s="5">
         <f>M20*H20/10*(I20^2*PI()/4)/10000*G20/(L20/1000000)/2</f>
+        <v>5.8970443211877628</v>
       </c>
       <c r="O20" s="5">
         <f>N20/G20</f>
+        <v>11.190331236146241</v>
       </c>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="1" t="s">
@@ -1457,11 +1521,12 @@
         <v>0</v>
       </c>
       <c r="F21" s="4">
-        <f>D21-E21</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="5">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="I21" s="5">
         <v>1.095</v>
@@ -1471,7 +1536,8 @@
         <v>0</v>
       </c>
       <c r="L21" s="4">
-        <f>J21-K21</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="3"/>
@@ -1480,7 +1546,7 @@
       <c r="Q21" s="3"/>
       <c r="R21" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
@@ -1492,45 +1558,52 @@
       </c>
       <c r="D22" s="5">
         <f>28.455+7</f>
+        <v>35.454999999999998</v>
       </c>
       <c r="E22" s="4">
         <v>0</v>
       </c>
       <c r="F22" s="5">
-        <f>D22-E22</f>
+        <f t="shared" si="0"/>
+        <v>35.454999999999998</v>
       </c>
       <c r="G22" s="5">
         <f>79/(283+79)*0.57+283/(283+79)*0.52</f>
+        <v>0.53091160220994471</v>
       </c>
       <c r="H22" s="5">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="I22" s="5">
         <v>1.095</v>
       </c>
       <c r="J22" s="4">
         <f>283+79</f>
+        <v>362</v>
       </c>
       <c r="K22" s="4">
         <v>0</v>
       </c>
       <c r="L22" s="4">
-        <f>J22-K22</f>
+        <f t="shared" si="1"/>
+        <v>362</v>
       </c>
       <c r="M22" s="4">
         <v>1495</v>
       </c>
       <c r="N22" s="5">
         <f>M22*H22/10*(I22^2*PI()/4)/10000*G22/(L22/1000000)/2</f>
+        <v>3.6443297622055382</v>
       </c>
       <c r="O22" s="5">
         <f>N22/G22</f>
+        <v>6.8642872881960812</v>
       </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="1" t="s">
@@ -1541,11 +1614,12 @@
         <v>0</v>
       </c>
       <c r="F23" s="4">
-        <f>D23-E23</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="5">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="I23" s="5">
         <v>1.095</v>
@@ -1555,7 +1629,8 @@
         <v>0</v>
       </c>
       <c r="L23" s="4">
-        <f>J23-K23</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="3"/>
@@ -1564,7 +1639,7 @@
       <c r="Q23" s="3"/>
       <c r="R23" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -1576,45 +1651,52 @@
       </c>
       <c r="D24" s="5">
         <f>28.82+7.195</f>
+        <v>36.015000000000001</v>
       </c>
       <c r="E24" s="4">
         <v>0</v>
       </c>
       <c r="F24" s="5">
-        <f>D24-E24</f>
+        <f t="shared" si="0"/>
+        <v>36.015000000000001</v>
       </c>
       <c r="G24" s="5">
         <f>80/(284+80)*0.56+284/(284+80)*0.52</f>
+        <v>0.52879120879120878</v>
       </c>
       <c r="H24" s="5">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="I24" s="5">
         <v>1.095</v>
       </c>
       <c r="J24" s="4">
         <f>284+80</f>
+        <v>364</v>
       </c>
       <c r="K24" s="4">
         <v>0</v>
       </c>
       <c r="L24" s="4">
-        <f>J24-K24</f>
+        <f t="shared" si="1"/>
+        <v>364</v>
       </c>
       <c r="M24" s="4">
         <v>1631</v>
       </c>
       <c r="N24" s="5">
         <f>M24*H24/10*(I24^2*PI()/4)/10000*G24/(L24/1000000)/2</f>
+        <v>3.9382169149860169</v>
       </c>
       <c r="O24" s="5">
         <f>N24/G24</f>
+        <v>7.4475839414739724</v>
       </c>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="1" t="s">
@@ -1625,11 +1707,12 @@
         <v>0</v>
       </c>
       <c r="F25" s="4">
-        <f>D25-E25</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="5">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="I25" s="5">
         <v>1.095</v>
@@ -1639,7 +1722,8 @@
         <v>0</v>
       </c>
       <c r="L25" s="4">
-        <f>J25-K25</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="3"/>
@@ -1648,7 +1732,7 @@
       <c r="Q25" s="3"/>
       <c r="R25" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -1665,13 +1749,14 @@
         <v>0</v>
       </c>
       <c r="F26" s="5">
-        <f>D26-E26</f>
+        <f t="shared" si="0"/>
+        <v>26.48</v>
       </c>
       <c r="G26" s="5">
         <v>0.53</v>
       </c>
       <c r="H26" s="5">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="I26" s="5">
         <v>1.095</v>
@@ -1683,26 +1768,31 @@
         <v>0</v>
       </c>
       <c r="L26" s="4">
-        <f>J26-K26</f>
+        <f t="shared" si="1"/>
+        <v>268</v>
       </c>
       <c r="M26" s="4">
         <v>986</v>
       </c>
       <c r="N26" s="5">
         <f>M26*H26/10*(I26^2*PI()/4)/10000*G26/(L26/1000000)/2</f>
+        <v>3.2410133501864777</v>
       </c>
       <c r="O26" s="5">
         <f>N26/G26</f>
+        <v>6.1151195286537314</v>
       </c>
       <c r="P26" s="5">
         <f>(N26+N28)/2</f>
+        <v>3.2495095561687588</v>
       </c>
       <c r="Q26" s="5">
         <f>(O26+O28)/2</f>
+        <v>6.1902576125490185</v>
       </c>
       <c r="R26" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="1" t="s">
@@ -1713,11 +1803,12 @@
         <v>0</v>
       </c>
       <c r="F27" s="4">
-        <f>D27-E27</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="5">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="I27" s="5">
         <v>1.095</v>
@@ -1727,20 +1818,23 @@
         <v>0</v>
       </c>
       <c r="L27" s="4">
-        <f>J27-K27</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="5">
         <f>_xlfn.STDEV.P(N26,N28)</f>
+        <v>8.4962059822808467E-3</v>
       </c>
       <c r="Q27" s="5">
         <f>_xlfn.STDEV.P(O26,O28)</f>
+        <v>7.5138083895287533E-2</v>
       </c>
       <c r="R27" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
@@ -1757,13 +1851,14 @@
         <v>0</v>
       </c>
       <c r="F28" s="5">
-        <f>D28-E28</f>
+        <f t="shared" si="0"/>
+        <v>27.06</v>
       </c>
       <c r="G28" s="5">
         <v>0.52</v>
       </c>
       <c r="H28" s="5">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="I28" s="5">
         <v>1.095</v>
@@ -1775,22 +1870,25 @@
         <v>0</v>
       </c>
       <c r="L28" s="4">
-        <f>J28-K28</f>
+        <f t="shared" si="1"/>
+        <v>269</v>
       </c>
       <c r="M28" s="4">
         <v>1014</v>
       </c>
       <c r="N28" s="5">
         <f>M28*H28/10*(I28^2*PI()/4)/10000*G28/(L28/1000000)/2</f>
+        <v>3.2580057621510394</v>
       </c>
       <c r="O28" s="5">
         <f>N28/G28</f>
+        <v>6.2653956964443065</v>
       </c>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="1" t="s">
@@ -1801,11 +1899,12 @@
         <v>0</v>
       </c>
       <c r="F29" s="4">
-        <f>D29-E29</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="5">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="I29" s="5">
         <v>1.095</v>
@@ -1815,7 +1914,8 @@
         <v>0</v>
       </c>
       <c r="L29" s="4">
-        <f>J29-K29</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="3"/>
@@ -1824,7 +1924,7 @@
       <c r="Q29" s="3"/>
       <c r="R29" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
@@ -1841,13 +1941,14 @@
         <v>0</v>
       </c>
       <c r="F30" s="5">
-        <f>D30-E30</f>
+        <f t="shared" si="0"/>
+        <v>6.41</v>
       </c>
       <c r="G30" s="5">
         <v>0.41</v>
       </c>
       <c r="H30" s="5">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="I30" s="5">
         <v>1.095</v>
@@ -1859,26 +1960,31 @@
         <v>0</v>
       </c>
       <c r="L30" s="4">
-        <f>J30-K30</f>
+        <f t="shared" si="1"/>
+        <v>52</v>
       </c>
       <c r="M30" s="4">
         <v>417</v>
       </c>
       <c r="N30" s="5">
         <f>M30*H30/10*(I30^2*PI()/4)/10000*G30/(L30/1000000)/2</f>
+        <v>5.4648644913038851</v>
       </c>
       <c r="O30" s="5">
         <f>N30/G30</f>
+        <v>13.328937783668014</v>
       </c>
       <c r="P30" s="5">
         <f>(N30+N32)/2</f>
+        <v>5.3927504274356783</v>
       </c>
       <c r="Q30" s="5">
         <f>(O30+O32)/2</f>
+        <v>12.851255361098509</v>
       </c>
       <c r="R30" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="1" t="s">
@@ -1889,11 +1995,12 @@
         <v>0</v>
       </c>
       <c r="F31" s="4">
-        <f>D31-E31</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="5">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="I31" s="5">
         <v>1.095</v>
@@ -1903,20 +2010,23 @@
         <v>0</v>
       </c>
       <c r="L31" s="4">
-        <f>J31-K31</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
       <c r="P31" s="5">
         <f>_xlfn.STDEV.P(N30,N32)</f>
+        <v>7.2114063868206735E-2</v>
       </c>
       <c r="Q31" s="5">
         <f>_xlfn.STDEV.P(O30,O32)</f>
+        <v>0.47768242256950533</v>
       </c>
       <c r="R31" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -1927,19 +2037,20 @@
         <v>19</v>
       </c>
       <c r="D32" s="5">
-        <v>6.495</v>
+        <v>6.4950000000000001</v>
       </c>
       <c r="E32" s="4">
         <v>0</v>
       </c>
       <c r="F32" s="5">
-        <f>D32-E32</f>
+        <f t="shared" si="0"/>
+        <v>6.4950000000000001</v>
       </c>
       <c r="G32" s="5">
         <v>0.43</v>
       </c>
       <c r="H32" s="5">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="I32" s="5">
         <v>1.095</v>
@@ -1951,22 +2062,25 @@
         <v>0</v>
       </c>
       <c r="L32" s="4">
-        <f>J32-K32</f>
+        <f t="shared" si="1"/>
+        <v>54</v>
       </c>
       <c r="M32" s="4">
         <v>402</v>
       </c>
       <c r="N32" s="5">
         <f>M32*H32/10*(I32^2*PI()/4)/10000*G32/(L32/1000000)/2</f>
+        <v>5.3206363635674716</v>
       </c>
       <c r="O32" s="5">
         <f>N32/G32</f>
+        <v>12.373572938529003</v>
       </c>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="1" t="s">
@@ -1977,11 +2091,12 @@
         <v>0</v>
       </c>
       <c r="F33" s="4">
-        <f>D33-E33</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="5">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="I33" s="5">
         <v>1.095</v>
@@ -1991,7 +2106,8 @@
         <v>0</v>
       </c>
       <c r="L33" s="4">
-        <f>J33-K33</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="3"/>
@@ -2000,7 +2116,7 @@
       <c r="Q33" s="3"/>
       <c r="R33" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
@@ -2012,18 +2128,20 @@
       </c>
       <c r="D34" s="5">
         <f>29.19+29.51</f>
+        <v>58.7</v>
       </c>
       <c r="E34" s="4">
         <v>0</v>
       </c>
       <c r="F34" s="5">
-        <f>D34-E34</f>
+        <f t="shared" si="0"/>
+        <v>58.7</v>
       </c>
       <c r="G34" s="5">
         <v>0.52</v>
       </c>
       <c r="H34" s="5">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="I34" s="5">
         <v>1.095</v>
@@ -2035,26 +2153,31 @@
         <v>0</v>
       </c>
       <c r="L34" s="4">
-        <f>J34-K34</f>
+        <f t="shared" si="1"/>
+        <v>580</v>
       </c>
       <c r="M34" s="4">
         <v>2217</v>
       </c>
       <c r="N34" s="5">
         <f>M34*H34/10*(I34^2*PI()/4)/10000*G34/(L34/1000000)/2</f>
+        <v>3.303724869739681</v>
       </c>
       <c r="O34" s="5">
         <f>N34/G34</f>
+        <v>6.3533170571916937</v>
       </c>
       <c r="P34" s="5">
         <f>(N34+N36)/2</f>
+        <v>3.2049870742402522</v>
       </c>
       <c r="Q34" s="5">
         <f>(O34+O36)/2</f>
+        <v>6.1634366812312544</v>
       </c>
       <c r="R34" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="1" t="s">
@@ -2065,11 +2188,12 @@
         <v>0</v>
       </c>
       <c r="F35" s="4">
-        <f>D35-E35</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="5">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="I35" s="5">
         <v>1.095</v>
@@ -2079,20 +2203,23 @@
         <v>0</v>
       </c>
       <c r="L35" s="4">
-        <f>J35-K35</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
       <c r="P35" s="5">
         <f>_xlfn.STDEV.P(N34,N36)</f>
+        <v>9.8737795499428627E-2</v>
       </c>
       <c r="Q35" s="5">
         <f>_xlfn.STDEV.P(O34,O36)</f>
+        <v>0.18988037596043927</v>
       </c>
       <c r="R35" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row r="36" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
@@ -2104,18 +2231,20 @@
       </c>
       <c r="D36" s="5">
         <f>29.735+30.105</f>
+        <v>59.84</v>
       </c>
       <c r="E36" s="4">
         <v>0</v>
       </c>
       <c r="F36" s="5">
-        <f>D36-E36</f>
+        <f t="shared" si="0"/>
+        <v>59.84</v>
       </c>
       <c r="G36" s="5">
         <v>0.52</v>
       </c>
       <c r="H36" s="5">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="I36" s="5">
         <v>1.095</v>
@@ -2127,22 +2256,25 @@
         <v>0</v>
       </c>
       <c r="L36" s="5">
-        <f>J36-K36</f>
+        <f t="shared" si="1"/>
+        <v>593.5</v>
       </c>
       <c r="M36" s="4">
         <v>2133</v>
       </c>
       <c r="N36" s="5">
         <f>M36*H36/10*(I36^2*PI()/4)/10000*G36/(L36/1000000)/2</f>
+        <v>3.1062492787408238</v>
       </c>
       <c r="O36" s="5">
         <f>N36/G36</f>
+        <v>5.9735563052708152</v>
       </c>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="1" t="s">
@@ -2153,11 +2285,12 @@
         <v>0</v>
       </c>
       <c r="F37" s="4">
-        <f>D37-E37</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="5">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="I37" s="5">
         <v>1.095</v>
@@ -2167,7 +2300,8 @@
         <v>0</v>
       </c>
       <c r="L37" s="4">
-        <f>J37-K37</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="3"/>
@@ -2176,7 +2310,7 @@
       <c r="Q37" s="3"/>
       <c r="R37" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row r="38" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -2188,18 +2322,20 @@
       </c>
       <c r="D38" s="5">
         <f>(6.52+6.645)</f>
+        <v>13.164999999999999</v>
       </c>
       <c r="E38" s="4">
         <v>0</v>
       </c>
       <c r="F38" s="5">
-        <f>D38-E38</f>
+        <f t="shared" si="0"/>
+        <v>13.164999999999999</v>
       </c>
       <c r="G38" s="5">
         <v>0.41</v>
       </c>
       <c r="H38" s="5">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="I38" s="5">
         <v>1.095</v>
@@ -2211,26 +2347,31 @@
         <v>0</v>
       </c>
       <c r="L38" s="4">
-        <f>J38-K38</f>
+        <f t="shared" si="1"/>
+        <v>106</v>
       </c>
       <c r="M38" s="4">
         <v>912</v>
       </c>
       <c r="N38" s="5">
         <f>M38*H38/10*(I38^2*PI()/4)/10000*G38/(L38/1000000)/2</f>
+        <v>5.8632128328038418</v>
       </c>
       <c r="O38" s="5">
         <f>N38/G38</f>
+        <v>14.300519104399616</v>
       </c>
       <c r="P38" s="5">
         <f>(N38+N40)/2</f>
+        <v>6.0329474950591866</v>
       </c>
       <c r="Q38" s="5">
         <f>(O38+O40)/2</f>
+        <v>14.36268066535624</v>
       </c>
       <c r="R38" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row r="39" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="1" t="s">
@@ -2241,11 +2382,12 @@
         <v>0</v>
       </c>
       <c r="F39" s="4">
-        <f>D39-E39</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="5">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="I39" s="5">
         <v>1.095</v>
@@ -2255,20 +2397,23 @@
         <v>0</v>
       </c>
       <c r="L39" s="4">
-        <f>J39-K39</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="5">
         <f>_xlfn.STDEV.P(N38,N40)</f>
+        <v>0.16973466225534528</v>
       </c>
       <c r="Q39" s="5">
         <f>_xlfn.STDEV.P(O38,O40)</f>
+        <v>6.2161560956624839E-2</v>
       </c>
       <c r="R39" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row r="40" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -2280,18 +2425,20 @@
       </c>
       <c r="D40" s="5">
         <f>6.555+6.925</f>
+        <v>13.48</v>
       </c>
       <c r="E40" s="4">
         <v>0</v>
       </c>
       <c r="F40" s="5">
-        <f>D40-E40</f>
+        <f t="shared" si="0"/>
+        <v>13.48</v>
       </c>
       <c r="G40" s="5">
         <v>0.43</v>
       </c>
       <c r="H40" s="5">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="I40" s="5">
         <v>1.095</v>
@@ -2303,22 +2450,25 @@
         <v>0</v>
       </c>
       <c r="L40" s="4">
-        <f>J40-K40</f>
+        <f t="shared" si="1"/>
+        <v>112</v>
       </c>
       <c r="M40" s="4">
         <v>972</v>
       </c>
       <c r="N40" s="5">
         <f>M40*H40/10*(I40^2*PI()/4)/10000*G40/(L40/1000000)/2</f>
+        <v>6.2026821573145323</v>
       </c>
       <c r="O40" s="5">
         <f>N40/G40</f>
+        <v>14.424842226312865</v>
       </c>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row r="41" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="1" t="s">
@@ -2329,11 +2479,12 @@
         <v>0</v>
       </c>
       <c r="F41" s="4">
-        <f>D41-E41</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="5">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="I41" s="5">
         <v>1.095</v>
@@ -2343,7 +2494,8 @@
         <v>0</v>
       </c>
       <c r="L41" s="4">
-        <f>J41-K41</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="3"/>
@@ -2352,7 +2504,7 @@
       <c r="Q41" s="3"/>
       <c r="R41" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row r="42" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>39</v>
       </c>
@@ -2364,18 +2516,21 @@
       </c>
       <c r="D42" s="5">
         <f>27.825+6.655</f>
+        <v>34.479999999999997</v>
       </c>
       <c r="E42" s="4">
         <v>0</v>
       </c>
       <c r="F42" s="5">
-        <f>D42-E42</f>
+        <f t="shared" si="0"/>
+        <v>34.479999999999997</v>
       </c>
       <c r="G42" s="5">
         <f>52/(277+52)*0.38+277/(277+52)*0.51</f>
+        <v>0.48945288753799387</v>
       </c>
       <c r="H42" s="5">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="I42" s="5">
         <v>1.095</v>
@@ -2387,26 +2542,31 @@
         <v>0</v>
       </c>
       <c r="L42" s="4">
-        <f>J42-K42</f>
+        <f t="shared" si="1"/>
+        <v>329</v>
       </c>
       <c r="M42" s="4">
         <v>1968</v>
       </c>
       <c r="N42" s="5">
         <f>M42*H42/10*(I42^2*PI()/4)/10000*G42/(L42/1000000)/2</f>
+        <v>4.8663452861007856</v>
       </c>
       <c r="O42" s="5">
         <f>N42/G42</f>
+        <v>9.9424181775269123</v>
       </c>
       <c r="P42" s="5">
         <f>(N42+N44)/2</f>
+        <v>4.7946391497643432</v>
       </c>
       <c r="Q42" s="5">
         <f>(O42+O44)/2</f>
+        <v>9.756029601032683</v>
       </c>
       <c r="R42" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row r="43" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="1" t="s">
@@ -2417,11 +2577,12 @@
         <v>0</v>
       </c>
       <c r="F43" s="4">
-        <f>D43-E43</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="5">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="I43" s="5">
         <v>1.095</v>
@@ -2431,20 +2592,23 @@
         <v>0</v>
       </c>
       <c r="L43" s="4">
-        <f>J43-K43</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
       <c r="P43" s="5">
         <f>_xlfn.STDEV.P(N42,N44)</f>
+        <v>7.1706136336442849E-2</v>
       </c>
       <c r="Q43" s="5">
         <f>_xlfn.STDEV.P(O42,O44)</f>
+        <v>0.18638857649422924</v>
       </c>
       <c r="R43" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row r="44" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>40</v>
       </c>
@@ -2456,18 +2620,21 @@
       </c>
       <c r="D44" s="5">
         <f>28.07+6.715</f>
+        <v>34.784999999999997</v>
       </c>
       <c r="E44" s="4">
         <v>0</v>
       </c>
       <c r="F44" s="5">
-        <f>D44-E44</f>
+        <f t="shared" si="0"/>
+        <v>34.784999999999997</v>
       </c>
       <c r="G44" s="5">
         <f>55/(279+55)*0.41+279/(279+55)*0.51</f>
+        <v>0.49353293413173649</v>
       </c>
       <c r="H44" s="5">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="I44" s="5">
         <v>1.095</v>
@@ -2479,22 +2646,25 @@
         <v>0</v>
       </c>
       <c r="L44" s="4">
-        <f>J44-K44</f>
+        <f t="shared" si="1"/>
+        <v>334</v>
       </c>
       <c r="M44" s="4">
         <v>1923</v>
       </c>
       <c r="N44" s="5">
         <f>M44*H44/10*(I44^2*PI()/4)/10000*G44/(L44/1000000)/2</f>
+        <v>4.7229330134279</v>
       </c>
       <c r="O44" s="5">
         <f>N44/G44</f>
+        <v>9.5696410245384538</v>
       </c>
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row r="45" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="1" t="s">
@@ -2505,11 +2675,12 @@
         <v>0</v>
       </c>
       <c r="F45" s="4">
-        <f>D45-E45</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="5">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="I45" s="5">
         <v>1.095</v>
@@ -2519,7 +2690,8 @@
         <v>0</v>
       </c>
       <c r="L45" s="4">
-        <f>J45-K45</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="3"/>
@@ -2528,7 +2700,7 @@
       <c r="Q45" s="3"/>
       <c r="R45" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row r="46" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>41</v>
       </c>
@@ -2540,18 +2712,21 @@
       </c>
       <c r="D46" s="5">
         <f>28.195+6.84</f>
+        <v>35.034999999999997</v>
       </c>
       <c r="E46" s="4">
         <v>0</v>
       </c>
       <c r="F46" s="5">
-        <f>D46-E46</f>
+        <f t="shared" si="0"/>
+        <v>35.034999999999997</v>
       </c>
       <c r="G46" s="5">
         <f>57/(285+57)*0.42+285/(285+57)*0.52</f>
+        <v>0.5033333333333333</v>
       </c>
       <c r="H46" s="5">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="I46" s="5">
         <v>1.095</v>
@@ -2563,7 +2738,8 @@
         <v>0</v>
       </c>
       <c r="L46" s="4">
-        <f>J46-K46</f>
+        <f t="shared" si="1"/>
+        <v>342</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="3"/>
@@ -2572,7 +2748,7 @@
       <c r="Q46" s="3"/>
       <c r="R46" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row r="47" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="1" t="s">
@@ -2583,11 +2759,12 @@
         <v>0</v>
       </c>
       <c r="F47" s="4">
-        <f>D47-E47</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="5">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="I47" s="5">
         <v>1.095</v>
@@ -2597,7 +2774,8 @@
         <v>0</v>
       </c>
       <c r="L47" s="4">
-        <f>J47-K47</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="3"/>
@@ -2606,7 +2784,7 @@
       <c r="Q47" s="3"/>
       <c r="R47" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row r="48" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>42</v>
       </c>
@@ -2618,18 +2796,21 @@
       </c>
       <c r="D48" s="5">
         <f>28.76+6.865</f>
+        <v>35.625</v>
       </c>
       <c r="E48" s="4">
         <v>0</v>
       </c>
       <c r="F48" s="5">
-        <f>D48-E48</f>
+        <f t="shared" si="0"/>
+        <v>35.625</v>
       </c>
       <c r="G48" s="5">
         <f>55/(287+55)*0.39+287/(287+55)*0.51</f>
+        <v>0.49070175438596486</v>
       </c>
       <c r="H48" s="5">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="I48" s="5">
         <v>1.095</v>
@@ -2641,7 +2822,8 @@
         <v>0</v>
       </c>
       <c r="L48" s="4">
-        <f>J48-K48</f>
+        <f t="shared" si="1"/>
+        <v>342</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="3"/>
@@ -2650,7 +2832,7 @@
       <c r="Q48" s="3"/>
       <c r="R48" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row r="49" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="1" t="s">
@@ -2661,11 +2843,12 @@
         <v>0</v>
       </c>
       <c r="F49" s="4">
-        <f>D49-E49</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="5">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="I49" s="5">
         <v>1.095</v>
@@ -2675,7 +2858,8 @@
         <v>0</v>
       </c>
       <c r="L49" s="4">
-        <f>J49-K49</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="3"/>
@@ -2684,7 +2868,7 @@
       <c r="Q49" s="3"/>
       <c r="R49" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row r="50" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>43</v>
       </c>
@@ -2706,7 +2890,7 @@
       <c r="Q50" s="3"/>
       <c r="R50" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row r="51" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>44</v>
       </c>
@@ -2728,7 +2912,7 @@
       <c r="Q51" s="3"/>
       <c r="R51" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+    <row r="52" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
@@ -2748,7 +2932,7 @@
       <c r="Q52" s="3"/>
       <c r="R52" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+    <row r="53" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>45</v>
       </c>
@@ -2770,7 +2954,7 @@
       <c r="Q53" s="3"/>
       <c r="R53" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+    <row r="54" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>46</v>
       </c>
@@ -2792,7 +2976,7 @@
       <c r="Q54" s="3"/>
       <c r="R54" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+    <row r="55" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>47</v>
       </c>
@@ -2814,7 +2998,7 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+    <row r="56" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>48</v>
       </c>
@@ -2836,7 +3020,7 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+    <row r="57" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>49</v>
       </c>
@@ -2858,7 +3042,7 @@
       <c r="Q57" s="3"/>
       <c r="R57" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+    <row r="58" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>50</v>
       </c>
@@ -2880,7 +3064,7 @@
       <c r="Q58" s="3"/>
       <c r="R58" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+    <row r="59" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>51</v>
       </c>
@@ -2902,7 +3086,7 @@
       <c r="Q59" s="3"/>
       <c r="R59" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+    <row r="60" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="2"/>
       <c r="C60" s="1"/>
@@ -2924,5 +3108,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/exp data/Cell setup info/Cell table stacked electrodes_BKSComments.xlsx
+++ b/exp data/Cell setup info/Cell table stacked electrodes_BKSComments.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\github.com\yugal0\fitting-experimental\exp data\cell setup info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19BCF31-E47F-416E-837D-BB4BE341BCE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB83FB91-D7E8-47F5-8AC9-6BB6D17E7541}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tortuosity" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0"/>
 </workbook>
 </file>
 
@@ -554,9 +554,9 @@
   </sheetPr>
   <dimension ref="A1:R60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M45" sqref="M45"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
